--- a/writings/fig/4feature_lik.xlsx
+++ b/writings/fig/4feature_lik.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06BC852-2B13-8744-9E8C-43CB10BFA7FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{66A8B2EE-DD38-9E47-BEE3-73771D9F3C7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40360" yWindow="3900" windowWidth="26900" windowHeight="15940"/>
+    <workbookView xWindow="40860" yWindow="5120" windowWidth="26900" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="VB3_lik" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">VB3_lik!$B$2:$B$1201</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">VB3_lik!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">VB3_lik!$C$2:$C$1201</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,55 +42,63 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
-      <color indexed="54"/>
+      <color theme="3"/>
       <name val="等线 Light"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color indexed="54"/>
+      <color theme="3"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color indexed="54"/>
+      <color theme="3"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color theme="3"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -93,20 +106,75 @@
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,77 +183,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,67 +212,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -266,7 +264,87 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -278,45 +356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,36 +397,7 @@
       <end/>
       <top/>
       <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -372,6 +407,15 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,6 +431,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start style="thin">
+        <color rgb="FF3F3F3F"/>
+      </start>
+      <end style="thin">
+        <color rgb="FF3F3F3F"/>
+      </end>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,21 +475,6 @@
     </border>
     <border>
       <start style="thin">
-        <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF3F3F3F"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="thin">
         <color rgb="FFB2B2B2"/>
       </start>
       <end style="thin">
@@ -435,132 +488,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -570,119 +634,51 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20%-个性色1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="个性色1" xfId="25" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="26" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="28" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="29" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="30" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="好" xfId="31" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="33" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="35" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="37" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="41" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00E3E3E3"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -711,55 +707,62 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0%">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
                 <a:solidFill>
-                  <a:srgbClr val="333333"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="2000" b="1"/>
               <a:t>POP+CID+TITLE+PROP</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28611111111111109"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21388888888888888"/>
-          <c:y val="0.18055555555555555"/>
-          <c:w val="0.72222222222222221"/>
-          <c:h val="0.56944444444444442"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -778,12 +781,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="666699"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -8009,7 +8013,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA2D-A34F-93E8-BAE7AF98BDFB}"/>
+              <c16:uniqueId val="{00000000-73A8-9747-A3BB-1C37BCBCF6F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8021,108 +8025,135 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1788588431"/>
-        <c:axId val="1"/>
+        <c:axId val="1918247055"/>
+        <c:axId val="1918248751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1788588431"/>
+        <c:axId val="1918247055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1300"/>
+          <c:max val="1250"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="等线"/>
-                    <a:ea typeface="等线"/>
-                    <a:cs typeface="等线"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="333333"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" charset="0"/>
-                    <a:cs typeface="Calibri" charset="0"/>
-                  </a:rPr>
-                  <a:t>Time(Minutes)</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+                  <a:t>T</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+                  <a:t>ime(Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45277777777777778"/>
-              <c:y val="0.87037037037037035"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="C0C0C0"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0%">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
-                  <a:srgbClr val="333333"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="等线"/>
-                <a:ea typeface="等线"/>
-                <a:cs typeface="等线"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="1918248751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="1918248751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,7708 +8161,721 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="等线"/>
-                    <a:ea typeface="等线"/>
-                    <a:cs typeface="等线"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="333333"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" charset="0"/>
-                    <a:cs typeface="Calibri" charset="0"/>
-                  </a:rPr>
-                  <a:t>Likelihood</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+                  <a:t>L</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+                  <a:t>ikelihood</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.1111111111111112E-2"/>
-              <c:y val="0.31944444444444442"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="C0C0C0"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0%">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
-                  <a:srgbClr val="333333"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="等线"/>
-                <a:ea typeface="等线"/>
-                <a:cs typeface="等线"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788588431"/>
+        <c:crossAx val="1918247055"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="12700">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="等线"/>
-          <a:ea typeface="等线"/>
-          <a:cs typeface="等线"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
+    <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>POP+CID+TITLE+PROP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28611111111111109"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
         <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21388888888888888"/>
-          <c:y val="0.18055555555555555"/>
-          <c:w val="0.72222222222222221"/>
-          <c:h val="0.56944444444444442"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VB3_lik!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lik</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:srgbClr val="666699"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>VB3_lik!$B$2:$B$1201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1200"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>409</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>414</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>418</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>422</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>428</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>438</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>439</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>443</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>444</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>446</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>453</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>455</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>457</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>491</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>494</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>497</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>498</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>538</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>548</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>574</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>578</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>607</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>617</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>618</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>619</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>624</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>626</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>633</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>638</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>639</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>641</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>642</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>643</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>645</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>651</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>655</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>658</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>664</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>666</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>668</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>669</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>673</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>674</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>679</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>681</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>683</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>684</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>691</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>692</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>693</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>698</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>704</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>705</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>706</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>711</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>721</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>722</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>723</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>724</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>725</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>727</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>731</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>733</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>735</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>736</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>742</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>747</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>751</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>753</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>754</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>755</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>756</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>757</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>758</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>761</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>764</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>765</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>767</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>771</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>772</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>774</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>776</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>778</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>779</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>781</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>782</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>784</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>785</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>786</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>787</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>788</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>791</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>792</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>794</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>796</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>802</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>803</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>804</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>807</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>808</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>809</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>811</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>812</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>813</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>814</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>816</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>818</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>819</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>821</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>822</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>823</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>824</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>826</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>829</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>832</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>834</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>837</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>838</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>839</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>841</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>842</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>843</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>846</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>848</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>849</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>851</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>852</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>853</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>854</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>856</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>858</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>859</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>861</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>862</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>863</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>866</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>867</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>868</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>869</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>871</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>872</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>873</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>874</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>876</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>877</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>878</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>879</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="880">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="881">
-                  <c:v>882</c:v>
-                </c:pt>
-                <c:pt idx="882">
-                  <c:v>883</c:v>
-                </c:pt>
-                <c:pt idx="883">
-                  <c:v>884</c:v>
-                </c:pt>
-                <c:pt idx="884">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="885">
-                  <c:v>886</c:v>
-                </c:pt>
-                <c:pt idx="886">
-                  <c:v>887</c:v>
-                </c:pt>
-                <c:pt idx="887">
-                  <c:v>888</c:v>
-                </c:pt>
-                <c:pt idx="888">
-                  <c:v>889</c:v>
-                </c:pt>
-                <c:pt idx="889">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="890">
-                  <c:v>891</c:v>
-                </c:pt>
-                <c:pt idx="891">
-                  <c:v>892</c:v>
-                </c:pt>
-                <c:pt idx="892">
-                  <c:v>893</c:v>
-                </c:pt>
-                <c:pt idx="893">
-                  <c:v>894</c:v>
-                </c:pt>
-                <c:pt idx="894">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="895">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="896">
-                  <c:v>897</c:v>
-                </c:pt>
-                <c:pt idx="897">
-                  <c:v>898</c:v>
-                </c:pt>
-                <c:pt idx="898">
-                  <c:v>899</c:v>
-                </c:pt>
-                <c:pt idx="899">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="900">
-                  <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="901">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="902">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="903">
-                  <c:v>904</c:v>
-                </c:pt>
-                <c:pt idx="904">
-                  <c:v>905</c:v>
-                </c:pt>
-                <c:pt idx="905">
-                  <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="906">
-                  <c:v>907</c:v>
-                </c:pt>
-                <c:pt idx="907">
-                  <c:v>908</c:v>
-                </c:pt>
-                <c:pt idx="908">
-                  <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="909">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="910">
-                  <c:v>911</c:v>
-                </c:pt>
-                <c:pt idx="911">
-                  <c:v>912</c:v>
-                </c:pt>
-                <c:pt idx="912">
-                  <c:v>913</c:v>
-                </c:pt>
-                <c:pt idx="913">
-                  <c:v>914</c:v>
-                </c:pt>
-                <c:pt idx="914">
-                  <c:v>915</c:v>
-                </c:pt>
-                <c:pt idx="915">
-                  <c:v>916</c:v>
-                </c:pt>
-                <c:pt idx="916">
-                  <c:v>917</c:v>
-                </c:pt>
-                <c:pt idx="917">
-                  <c:v>918</c:v>
-                </c:pt>
-                <c:pt idx="918">
-                  <c:v>919</c:v>
-                </c:pt>
-                <c:pt idx="919">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="920">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="921">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="922">
-                  <c:v>923</c:v>
-                </c:pt>
-                <c:pt idx="923">
-                  <c:v>924</c:v>
-                </c:pt>
-                <c:pt idx="924">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="925">
-                  <c:v>926</c:v>
-                </c:pt>
-                <c:pt idx="926">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="927">
-                  <c:v>928</c:v>
-                </c:pt>
-                <c:pt idx="928">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="929">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="930">
-                  <c:v>931</c:v>
-                </c:pt>
-                <c:pt idx="931">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="932">
-                  <c:v>933</c:v>
-                </c:pt>
-                <c:pt idx="933">
-                  <c:v>934</c:v>
-                </c:pt>
-                <c:pt idx="934">
-                  <c:v>935</c:v>
-                </c:pt>
-                <c:pt idx="935">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="936">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="937">
-                  <c:v>938</c:v>
-                </c:pt>
-                <c:pt idx="938">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="939">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="940">
-                  <c:v>941</c:v>
-                </c:pt>
-                <c:pt idx="941">
-                  <c:v>942</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>943</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>944</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>947</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>948</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>951</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>952</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>955</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>956</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>957</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>958</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>961</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>964</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>969</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>971</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>975</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>978</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>982</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>984</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="987">
-                  <c:v>988</c:v>
-                </c:pt>
-                <c:pt idx="988">
-                  <c:v>989</c:v>
-                </c:pt>
-                <c:pt idx="989">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="990">
-                  <c:v>991</c:v>
-                </c:pt>
-                <c:pt idx="991">
-                  <c:v>992</c:v>
-                </c:pt>
-                <c:pt idx="992">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="993">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="994">
-                  <c:v>995</c:v>
-                </c:pt>
-                <c:pt idx="995">
-                  <c:v>996</c:v>
-                </c:pt>
-                <c:pt idx="996">
-                  <c:v>997</c:v>
-                </c:pt>
-                <c:pt idx="997">
-                  <c:v>998</c:v>
-                </c:pt>
-                <c:pt idx="998">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="1001">
-                  <c:v>1002</c:v>
-                </c:pt>
-                <c:pt idx="1002">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="1003">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="1004">
-                  <c:v>1005</c:v>
-                </c:pt>
-                <c:pt idx="1005">
-                  <c:v>1006</c:v>
-                </c:pt>
-                <c:pt idx="1006">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="1007">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="1008">
-                  <c:v>1009</c:v>
-                </c:pt>
-                <c:pt idx="1009">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="1010">
-                  <c:v>1011</c:v>
-                </c:pt>
-                <c:pt idx="1011">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="1012">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="1013">
-                  <c:v>1014</c:v>
-                </c:pt>
-                <c:pt idx="1014">
-                  <c:v>1015</c:v>
-                </c:pt>
-                <c:pt idx="1015">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="1016">
-                  <c:v>1017</c:v>
-                </c:pt>
-                <c:pt idx="1017">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="1018">
-                  <c:v>1019</c:v>
-                </c:pt>
-                <c:pt idx="1019">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="1020">
-                  <c:v>1021</c:v>
-                </c:pt>
-                <c:pt idx="1021">
-                  <c:v>1022</c:v>
-                </c:pt>
-                <c:pt idx="1022">
-                  <c:v>1023</c:v>
-                </c:pt>
-                <c:pt idx="1023">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1024">
-                  <c:v>1025</c:v>
-                </c:pt>
-                <c:pt idx="1025">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="1026">
-                  <c:v>1027</c:v>
-                </c:pt>
-                <c:pt idx="1027">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="1028">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="1029">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="1030">
-                  <c:v>1031</c:v>
-                </c:pt>
-                <c:pt idx="1031">
-                  <c:v>1032</c:v>
-                </c:pt>
-                <c:pt idx="1032">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="1033">
-                  <c:v>1034</c:v>
-                </c:pt>
-                <c:pt idx="1034">
-                  <c:v>1035</c:v>
-                </c:pt>
-                <c:pt idx="1035">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="1036">
-                  <c:v>1037</c:v>
-                </c:pt>
-                <c:pt idx="1037">
-                  <c:v>1038</c:v>
-                </c:pt>
-                <c:pt idx="1038">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="1039">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="1040">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="1041">
-                  <c:v>1042</c:v>
-                </c:pt>
-                <c:pt idx="1042">
-                  <c:v>1043</c:v>
-                </c:pt>
-                <c:pt idx="1043">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="1044">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="1045">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="1046">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="1047">
-                  <c:v>1048</c:v>
-                </c:pt>
-                <c:pt idx="1048">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="1049">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="1050">
-                  <c:v>1051</c:v>
-                </c:pt>
-                <c:pt idx="1051">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="1052">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="1053">
-                  <c:v>1054</c:v>
-                </c:pt>
-                <c:pt idx="1054">
-                  <c:v>1055</c:v>
-                </c:pt>
-                <c:pt idx="1055">
-                  <c:v>1056</c:v>
-                </c:pt>
-                <c:pt idx="1056">
-                  <c:v>1057</c:v>
-                </c:pt>
-                <c:pt idx="1057">
-                  <c:v>1058</c:v>
-                </c:pt>
-                <c:pt idx="1058">
-                  <c:v>1059</c:v>
-                </c:pt>
-                <c:pt idx="1059">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="1060">
-                  <c:v>1061</c:v>
-                </c:pt>
-                <c:pt idx="1061">
-                  <c:v>1062</c:v>
-                </c:pt>
-                <c:pt idx="1062">
-                  <c:v>1063</c:v>
-                </c:pt>
-                <c:pt idx="1063">
-                  <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="1064">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="1065">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="1066">
-                  <c:v>1067</c:v>
-                </c:pt>
-                <c:pt idx="1067">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="1068">
-                  <c:v>1069</c:v>
-                </c:pt>
-                <c:pt idx="1069">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="1070">
-                  <c:v>1071</c:v>
-                </c:pt>
-                <c:pt idx="1071">
-                  <c:v>1072</c:v>
-                </c:pt>
-                <c:pt idx="1072">
-                  <c:v>1073</c:v>
-                </c:pt>
-                <c:pt idx="1073">
-                  <c:v>1074</c:v>
-                </c:pt>
-                <c:pt idx="1074">
-                  <c:v>1075</c:v>
-                </c:pt>
-                <c:pt idx="1075">
-                  <c:v>1076</c:v>
-                </c:pt>
-                <c:pt idx="1076">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="1077">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="1078">
-                  <c:v>1079</c:v>
-                </c:pt>
-                <c:pt idx="1079">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="1080">
-                  <c:v>1081</c:v>
-                </c:pt>
-                <c:pt idx="1081">
-                  <c:v>1082</c:v>
-                </c:pt>
-                <c:pt idx="1082">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="1083">
-                  <c:v>1084</c:v>
-                </c:pt>
-                <c:pt idx="1084">
-                  <c:v>1085</c:v>
-                </c:pt>
-                <c:pt idx="1085">
-                  <c:v>1086</c:v>
-                </c:pt>
-                <c:pt idx="1086">
-                  <c:v>1087</c:v>
-                </c:pt>
-                <c:pt idx="1087">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="1088">
-                  <c:v>1089</c:v>
-                </c:pt>
-                <c:pt idx="1089">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="1090">
-                  <c:v>1091</c:v>
-                </c:pt>
-                <c:pt idx="1091">
-                  <c:v>1092</c:v>
-                </c:pt>
-                <c:pt idx="1092">
-                  <c:v>1093</c:v>
-                </c:pt>
-                <c:pt idx="1093">
-                  <c:v>1094</c:v>
-                </c:pt>
-                <c:pt idx="1094">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="1095">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="1096">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="1097">
-                  <c:v>1098</c:v>
-                </c:pt>
-                <c:pt idx="1098">
-                  <c:v>1099</c:v>
-                </c:pt>
-                <c:pt idx="1099">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="1100">
-                  <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="1101">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="1102">
-                  <c:v>1103</c:v>
-                </c:pt>
-                <c:pt idx="1103">
-                  <c:v>1104</c:v>
-                </c:pt>
-                <c:pt idx="1104">
-                  <c:v>1105</c:v>
-                </c:pt>
-                <c:pt idx="1105">
-                  <c:v>1106</c:v>
-                </c:pt>
-                <c:pt idx="1106">
-                  <c:v>1107</c:v>
-                </c:pt>
-                <c:pt idx="1107">
-                  <c:v>1108</c:v>
-                </c:pt>
-                <c:pt idx="1108">
-                  <c:v>1109</c:v>
-                </c:pt>
-                <c:pt idx="1109">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="1110">
-                  <c:v>1111</c:v>
-                </c:pt>
-                <c:pt idx="1111">
-                  <c:v>1112</c:v>
-                </c:pt>
-                <c:pt idx="1112">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="1113">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="1114">
-                  <c:v>1115</c:v>
-                </c:pt>
-                <c:pt idx="1115">
-                  <c:v>1116</c:v>
-                </c:pt>
-                <c:pt idx="1116">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="1117">
-                  <c:v>1118</c:v>
-                </c:pt>
-                <c:pt idx="1118">
-                  <c:v>1119</c:v>
-                </c:pt>
-                <c:pt idx="1119">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="1120">
-                  <c:v>1121</c:v>
-                </c:pt>
-                <c:pt idx="1121">
-                  <c:v>1122</c:v>
-                </c:pt>
-                <c:pt idx="1122">
-                  <c:v>1123</c:v>
-                </c:pt>
-                <c:pt idx="1123">
-                  <c:v>1124</c:v>
-                </c:pt>
-                <c:pt idx="1124">
-                  <c:v>1125</c:v>
-                </c:pt>
-                <c:pt idx="1125">
-                  <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="1126">
-                  <c:v>1127</c:v>
-                </c:pt>
-                <c:pt idx="1127">
-                  <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="1128">
-                  <c:v>1129</c:v>
-                </c:pt>
-                <c:pt idx="1129">
-                  <c:v>1130</c:v>
-                </c:pt>
-                <c:pt idx="1130">
-                  <c:v>1131</c:v>
-                </c:pt>
-                <c:pt idx="1131">
-                  <c:v>1132</c:v>
-                </c:pt>
-                <c:pt idx="1132">
-                  <c:v>1133</c:v>
-                </c:pt>
-                <c:pt idx="1133">
-                  <c:v>1134</c:v>
-                </c:pt>
-                <c:pt idx="1134">
-                  <c:v>1135</c:v>
-                </c:pt>
-                <c:pt idx="1135">
-                  <c:v>1136</c:v>
-                </c:pt>
-                <c:pt idx="1136">
-                  <c:v>1137</c:v>
-                </c:pt>
-                <c:pt idx="1137">
-                  <c:v>1138</c:v>
-                </c:pt>
-                <c:pt idx="1138">
-                  <c:v>1139</c:v>
-                </c:pt>
-                <c:pt idx="1139">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1140">
-                  <c:v>1141</c:v>
-                </c:pt>
-                <c:pt idx="1141">
-                  <c:v>1142</c:v>
-                </c:pt>
-                <c:pt idx="1142">
-                  <c:v>1143</c:v>
-                </c:pt>
-                <c:pt idx="1143">
-                  <c:v>1144</c:v>
-                </c:pt>
-                <c:pt idx="1144">
-                  <c:v>1145</c:v>
-                </c:pt>
-                <c:pt idx="1145">
-                  <c:v>1146</c:v>
-                </c:pt>
-                <c:pt idx="1146">
-                  <c:v>1147</c:v>
-                </c:pt>
-                <c:pt idx="1147">
-                  <c:v>1148</c:v>
-                </c:pt>
-                <c:pt idx="1148">
-                  <c:v>1149</c:v>
-                </c:pt>
-                <c:pt idx="1149">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="1150">
-                  <c:v>1151</c:v>
-                </c:pt>
-                <c:pt idx="1151">
-                  <c:v>1152</c:v>
-                </c:pt>
-                <c:pt idx="1152">
-                  <c:v>1153</c:v>
-                </c:pt>
-                <c:pt idx="1153">
-                  <c:v>1154</c:v>
-                </c:pt>
-                <c:pt idx="1154">
-                  <c:v>1155</c:v>
-                </c:pt>
-                <c:pt idx="1155">
-                  <c:v>1156</c:v>
-                </c:pt>
-                <c:pt idx="1156">
-                  <c:v>1157</c:v>
-                </c:pt>
-                <c:pt idx="1157">
-                  <c:v>1158</c:v>
-                </c:pt>
-                <c:pt idx="1158">
-                  <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="1159">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="1160">
-                  <c:v>1161</c:v>
-                </c:pt>
-                <c:pt idx="1161">
-                  <c:v>1162</c:v>
-                </c:pt>
-                <c:pt idx="1162">
-                  <c:v>1163</c:v>
-                </c:pt>
-                <c:pt idx="1163">
-                  <c:v>1164</c:v>
-                </c:pt>
-                <c:pt idx="1164">
-                  <c:v>1165</c:v>
-                </c:pt>
-                <c:pt idx="1165">
-                  <c:v>1166</c:v>
-                </c:pt>
-                <c:pt idx="1166">
-                  <c:v>1167</c:v>
-                </c:pt>
-                <c:pt idx="1167">
-                  <c:v>1168</c:v>
-                </c:pt>
-                <c:pt idx="1168">
-                  <c:v>1169</c:v>
-                </c:pt>
-                <c:pt idx="1169">
-                  <c:v>1170</c:v>
-                </c:pt>
-                <c:pt idx="1170">
-                  <c:v>1171</c:v>
-                </c:pt>
-                <c:pt idx="1171">
-                  <c:v>1172</c:v>
-                </c:pt>
-                <c:pt idx="1172">
-                  <c:v>1173</c:v>
-                </c:pt>
-                <c:pt idx="1173">
-                  <c:v>1174</c:v>
-                </c:pt>
-                <c:pt idx="1174">
-                  <c:v>1175</c:v>
-                </c:pt>
-                <c:pt idx="1175">
-                  <c:v>1176</c:v>
-                </c:pt>
-                <c:pt idx="1176">
-                  <c:v>1177</c:v>
-                </c:pt>
-                <c:pt idx="1177">
-                  <c:v>1178</c:v>
-                </c:pt>
-                <c:pt idx="1178">
-                  <c:v>1179</c:v>
-                </c:pt>
-                <c:pt idx="1179">
-                  <c:v>1180</c:v>
-                </c:pt>
-                <c:pt idx="1180">
-                  <c:v>1181</c:v>
-                </c:pt>
-                <c:pt idx="1181">
-                  <c:v>1182</c:v>
-                </c:pt>
-                <c:pt idx="1182">
-                  <c:v>1183</c:v>
-                </c:pt>
-                <c:pt idx="1183">
-                  <c:v>1184</c:v>
-                </c:pt>
-                <c:pt idx="1184">
-                  <c:v>1185</c:v>
-                </c:pt>
-                <c:pt idx="1185">
-                  <c:v>1186</c:v>
-                </c:pt>
-                <c:pt idx="1186">
-                  <c:v>1187</c:v>
-                </c:pt>
-                <c:pt idx="1187">
-                  <c:v>1188</c:v>
-                </c:pt>
-                <c:pt idx="1188">
-                  <c:v>1189</c:v>
-                </c:pt>
-                <c:pt idx="1189">
-                  <c:v>1190</c:v>
-                </c:pt>
-                <c:pt idx="1190">
-                  <c:v>1191</c:v>
-                </c:pt>
-                <c:pt idx="1191">
-                  <c:v>1192</c:v>
-                </c:pt>
-                <c:pt idx="1192">
-                  <c:v>1193</c:v>
-                </c:pt>
-                <c:pt idx="1193">
-                  <c:v>1194</c:v>
-                </c:pt>
-                <c:pt idx="1194">
-                  <c:v>1195</c:v>
-                </c:pt>
-                <c:pt idx="1195">
-                  <c:v>1196</c:v>
-                </c:pt>
-                <c:pt idx="1196">
-                  <c:v>1197</c:v>
-                </c:pt>
-                <c:pt idx="1197">
-                  <c:v>1198</c:v>
-                </c:pt>
-                <c:pt idx="1198">
-                  <c:v>1199</c:v>
-                </c:pt>
-                <c:pt idx="1199">
-                  <c:v>1200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>VB3_lik!$C$2:$C$1201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1200"/>
-                <c:pt idx="0">
-                  <c:v>-525049.16234200005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-495126.54078400001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-478964.36943800002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-467339.03632000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-457612.38693500002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-448765.76079500001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-440362.89996900002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-432206.922999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-424207.45908399997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-416323.75847100001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-408538.65138699999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-400846.20352799998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-393245.76091299998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-385739.07221900002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-378328.99353500002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-371019.139417</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-363814.18726799998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-356720.49586800003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-349746.32407899998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-342900.61404499999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-336189.89382300002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-329614.29062300001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-323165.59416400001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-316830.993755</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-310599.43308400002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-304463.54137200001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-298417.97957800003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-292457.72969599999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-286577.47489299998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-280771.61744900001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-275034.400692</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-269360.01589699998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-263742.69088299997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-258176.76709899999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-252656.768323</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-247177.461366</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-241733.908042</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-236321.50752099999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-230936.02851900001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-225573.63116700001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-220230.87894200001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-214904.74148500001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-209592.58984</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-204292.18664299999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-199001.67555399999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-193719.577425</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-188444.80715000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-183176.738927</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-177915.37892799999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-172661.77881799999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-167419.00385400001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-162194.36317699999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-157003.84241400001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-151874.10258800001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-146818.472717</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-141812.72089</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-136832.19978</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-131872.28363699999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-126934.066026</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-122018.727297</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-117127.182042</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-112260.177879</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-107418.359814</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-102602.303575</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-97812.532201900001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-93049.524061000004</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-88313.716734400004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-83605.509242300002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-78925.263903400002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-74273.308488800001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-69649.938945400005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-65055.422750600002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-60490.002841499998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-55953.901998000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-51447.327536800003</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-46970.476164300002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-42523.538842499998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-38106.705534699999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-33720.169711399998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-29364.132513299999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-25038.806483100001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-20744.4187967</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-16481.213935200001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-12249.4557561</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-8049.4289342800002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-3881.4397569500002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>254.18373306999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4357.0922380100001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8426.9163326399994</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12463.2681908</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>16465.743874</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>20433.926135199999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>24367.387685199999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>28265.6948576</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>32128.411607099999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>35955.103765599997</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>39745.343481199998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>43498.7137582</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>47214.813018200002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50893.259601899998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>54533.696131099998</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>58135.793658000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>61699.255529000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>65223.820901999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>68709.267858099993</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>72155.416063900004</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>75562.128944900003</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>78929.315345199997</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>82256.930656299999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>85544.977411300002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>88793.505350199994</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>92002.610972199996</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>95172.436600200002</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>98303.168992699997</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>101395.03754200001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>104448.31210700001</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>107463.30053199999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>110440.345906</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>113379.82361399999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>116282.13824099999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>119147.720384</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121977.023414</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124770.520253</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>127528.700193</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>130252.06581</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>132941.13000100001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>135596.413176</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>138218.44062000001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>140807.740063</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>143364.839442</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>145890.26488999999</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>148384.53893800001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>150848.178935</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>153281.69568199999</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>155685.592271</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>158060.363121</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>160406.49319499999</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>162724.45739299999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>165014.72009300001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>167277.73484200001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>169513.94416899999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>171723.77950800001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>173907.66122000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>176065.99869800001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>178199.19054099999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>180307.62478300001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>182391.679171</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>184451.72147700001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>186488.10983500001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>188501.1931</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>190491.31121399999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>192458.79557700001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>194403.96942400001</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>196327.14818700001</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>198228.63985599999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>200108.74533000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>201967.75874799999</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>203805.96780899999</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>205623.65408099999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>207421.09328</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>209198.55554900001</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>210956.30570600001</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>212694.603481</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>214413.70373899999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>216113.856681</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>217795.30803399999</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>219458.29922799999</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>221103.06755400001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>222729.84631600001</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>224338.86496499999</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>225930.34922999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>227504.521228</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>229061.599575</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>230601.799486</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>232125.332861</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>233632.408375</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>235123.231554</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>236598.004846</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>238056.927692</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>239500.19658600001</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>240928.00513899999</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>242340.54412999999</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>243738.00156</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>245120.562706</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>246488.41016299999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>247841.723894</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>249180.68127199999</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>250505.45712100001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>251816.22375999999</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>253113.15103899999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>254396.40638</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>255666.15481099999</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>256922.55900800001</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>258165.779324</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>259395.973829</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>260613.298343</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>261817.90646999999</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>263009.94962999999</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>264189.57709400001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>265356.93601599999</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>266512.17146300001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>267655.42644900002</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>268786.84196699999</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>269906.55701599998</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>271014.708636</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>272111.43193600001</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>273196.860124</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>274271.12453600002</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>275334.35466800001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>276386.67820199998</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>277428.22103299998</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>278459.107304</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>279479.45942600002</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>280489.39811000001</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>281489.04239299998</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>282478.50966500002</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>283457.91569499997</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>284427.37465700001</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>285386.99915599998</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>286336.90025399998</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>287277.187492</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>288207.96892000001</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>289129.35111500003</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>290041.43920899997</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>290944.33691399998</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>291838.14653700002</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>292722.96901300002</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>293598.90392100002</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>294466.04950700002</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>295324.50270800001</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>296174.35917100002</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>297015.71327299997</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>297848.65814700001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>298673.28569500003</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>299489.68661400001</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>300297.950411</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>301098.16542700003</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>301890.41885199997</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>302674.79674299998</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>303451.38404799998</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>304220.26461700001</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>304981.52122300002</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>305735.23558199999</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>306481.48836299998</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>307220.35921199998</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>307951.92676200002</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>308676.26865500002</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>309393.46155299997</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>310103.58115799999</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>310806.70222199999</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>311502.898567</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>312192.24309499998</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>312874.80780800001</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>313550.66381599999</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>314219.88135600003</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>314882.52980199998</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>315538.67768199998</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>316188.39268599998</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>316831.74168500002</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>317468.79073900002</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>318099.60511100001</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>318724.249281</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>319342.78695400001</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>319955.28107500001</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>320561.79384</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>321162.38670500001</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>321757.12040199997</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>322346.05494499998</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>322929.24964200001</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>323506.76310699998</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>324078.653269</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>324644.97738499998</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>325205.79204299999</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>325761.15318000002</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>326311.11608599999</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>326855.73541600001</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>327395.065199</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>327929.15884400002</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>328458.06915499998</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>328981.84833399998</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>329500.547991</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>330014.21915600001</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>330522.91228300001</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>331026.67725800001</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>331525.56341100001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>332019.61952100002</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>332508.89382300002</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>332993.43401700002</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>333473.28727600002</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>333948.50025099999</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>334419.11908099998</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>334885.189396</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>335346.75633</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>335803.86452200002</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>336256.55812399997</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>336704.88081100001</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>337148.87578300002</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>337588.58577300003</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>338024.05305599998</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>338455.31945000001</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>338882.426324</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>339305.41460700001</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>339724.32478800003</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>340139.19692800002</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>340550.07066099998</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>340956.9852</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>341359.979345</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>341759.09148599999</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>342154.35960800003</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>342545.82130000001</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>342933.513752</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>343317.47377099999</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>343697.73777499999</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>344074.34180499997</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>344447.321528</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>344816.71223900001</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>345182.54887</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>345544.86599100003</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>345903.69781500002</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>346259.07820400002</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>346611.04067199997</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>346959.618388</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>347304.84418399999</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>347646.75055499998</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>347985.36966500001</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>348320.733351</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>348652.87312499998</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>348981.820182</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>349307.60539899999</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>349630.25933999999</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>349949.812263</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>350266.29411999998</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>350579.73456100002</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>350890.16293799999</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>351197.60830899997</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>351502.09944100003</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>351803.66481400002</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>352102.33262</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>352398.13077400002</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>352691.08691100002</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>352981.22839100001</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>353268.58230200002</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>353553.17546300002</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>353835.03442799998</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>354114.18548799999</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>354390.65467399999</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>354664.46775900002</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>354935.65026199998</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>355204.22745300003</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>355470.22434900003</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>355733.66572599998</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>355994.57611099997</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>356252.979796</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>356508.90083100001</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>356762.36303200002</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>357013.38998199999</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>357262.00503300002</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>357508.23131</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>357752.09171200002</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>357993.60891499999</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>358232.80537299998</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>358469.70332199999</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>358704.324784</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>358936.69156399998</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>359166.82525699999</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>359394.74724900001</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>359620.47871699999</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>359844.04063499998</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>360065.45377199998</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>360284.73869899998</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>360501.91578400001</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>360717.00520299998</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>360930.02693400002</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>361141.00076199998</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>361349.94628500001</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>361556.88290800003</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>361761.829852</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>361964.80615100003</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>362165.83065800002</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>362364.922043</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>362562.09879700001</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>362757.379235</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>362950.781494</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>363142.323538</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>363332.02315899997</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>363519.89797799999</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>363705.965447</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>363890.242852</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>364072.74731200002</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>364253.49578400003</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>364432.50506</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>364609.79177399998</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>364785.37239899999</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>364959.26325399999</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>365131.48049699998</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>365302.04013600003</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>365470.95802399999</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>365638.24986400001</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>365803.93120699999</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>365968.01745799999</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>366130.52387400001</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>366291.46556699998</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>366450.85750300001</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>366608.71450900001</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>366765.05126799998</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>366919.882323</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>367073.22207999998</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>367225.084806</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>367375.484635</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>367524.43556299998</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>367671.95145599998</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>367818.04604500002</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>367962.73293300002</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>368106.02559099998</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>368247.93736500002</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>368388.48147</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>368527.67099999997</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>368665.51892100001</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>368802.038077</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>368937.24118900002</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>369071.14085800003</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>369203.74956500001</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>369335.07967299997</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>369465.14342500002</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>369593.95295100001</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>369721.52026399999</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>369847.85726199998</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>369972.97573100001</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>370096.887345</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>370219.60366700002</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>370341.13614999998</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>370461.49613799999</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>370580.69486799999</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>370698.74346799997</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>370815.65296400001</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>370931.43427299999</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>371046.09821099997</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>371159.65549199999</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>371272.11672400002</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>371383.49241900002</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>371493.79298600001</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>371603.02873700002</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>371711.209883</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>371818.34654300002</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>371924.44873399998</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>372029.52638200001</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>372133.58931800001</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>372236.64727700001</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>372338.70990399999</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>372439.78675199999</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>372539.88728199998</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>372639.02086699998</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>372737.196788</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>372834.42424000002</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>372930.71233100002</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>373026.07007900003</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>373120.506421</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>373214.03020400001</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>373306.650196</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>373398.375077</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>373489.21344600001</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>373579.17382199998</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>373668.26464100002</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>373756.494259</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>373843.87095200003</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>373930.40291800001</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>374016.09827800002</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>374100.965073</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>374185.011268</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>374268.244756</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>374350.67334899999</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>374432.30478900002</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>374513.14674200001</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>374593.20680099999</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>374672.49248900003</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>374751.01125400001</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>374828.77047599998</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>374905.77746200003</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>374982.03945099999</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>375057.56361200003</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>375132.35704799998</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>375206.42679100001</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>375279.77980700001</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>375352.42299699999</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>375424.36319499998</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>375495.60716999997</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>375566.16162600002</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>375636.03320300003</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>375705.22847899998</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>375773.753968</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>375841.61612100003</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>375908.821329</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>375975.37592199998</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>376041.28616900003</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>376106.55827799998</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>376171.19839899999</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>376235.21262399998</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>376298.60698500002</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>376361.38745699998</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>376423.55995899998</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>376485.13035200001</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>376546.10444099997</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>376606.487976</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>376666.28665199998</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>376725.50611000002</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>376784.15193699999</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>376842.22966399998</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>376899.74477400002</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>376956.70269200002</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>377013.10879600001</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>377068.96840900002</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>377124.28680499998</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>377179.06920700002</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>377233.320787</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>377287.04667000001</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>377340.25192800001</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>377392.94158899999</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>377445.12062900001</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>377496.793978</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>377547.96652000002</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>377598.64308900002</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>377648.828476</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>377698.52742300002</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>377747.74462999997</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>377796.484749</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>377844.75238800002</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>377892.552112</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>377939.88844100002</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>377986.76585299999</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>378033.18878099998</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>378079.16161700001</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>378124.68871199997</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>378169.77437100001</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>378214.42286200001</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>378258.63841100002</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>378302.42520200001</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>378345.78737899999</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>378388.72904800001</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>378431.25427400001</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>378473.36708400003</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>378515.07146599999</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>378556.37136799999</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>378597.27070200001</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>378637.77334199997</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>378677.883126</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>378717.60385199997</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>378756.93928400002</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>378795.893148</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>378834.46913799999</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>378872.67090700002</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>378910.50207699998</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>378947.96623299998</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>378985.06692700001</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>379021.807676</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>379058.19196299999</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>379094.223237</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>379129.90491699998</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>379165.240384</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>379200.232991</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>379234.88605600002</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>379269.20286600001</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>379303.18667700002</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>379336.84071199998</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>379370.16816399997</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>379403.172196</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>379435.85593800002</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>379468.22249299998</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>379500.27493199997</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>379532.016298</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>379563.44960200001</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>379594.57782900002</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>379625.403934</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>379655.930842</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>379686.16145299998</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>379716.09863600001</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>379745.74523399997</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>379775.10406300001</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>379804.17791000003</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>379832.969537</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>379861.48167900002</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>379889.71704199997</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>379917.67830999999</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>379945.36813900003</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>379972.78915899998</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>379999.943975</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>380026.83516700001</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>380053.46529099997</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>380079.83687699999</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>380105.95243200002</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>380131.81443600002</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>380157.42534700001</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>380182.78760099999</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>380207.90360700001</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>380232.775754</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>380257.40640400001</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>380281.79790100001</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>380305.95256200002</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>380329.872684</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>380353.56054199999</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>380377.01838700002</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>380400.24845100002</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>380423.25294199999</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>380446.034048</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>380468.59393600002</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>380490.93475100002</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>380513.058617</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>380534.96763999999</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>380556.66390300001</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>380578.14947100001</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>380599.42638600001</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>380620.49667299999</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>380641.36233700003</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>380662.02536199999</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>380682.487715</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>380702.75134299998</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>380722.81817300001</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>380742.690115</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>380762.369061</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>380781.85688199999</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>380801.15543300001</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>380820.26655200002</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>380839.192056</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>380857.93374800001</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>380876.49341</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>380894.87280999997</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>380913.07369699999</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>380931.09780400002</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>380948.94684500003</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>380966.62252099998</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>380984.12651500001</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>381001.46049099998</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>381018.62610200001</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>381035.62498000002</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>381052.45874600002</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>381069.12900000002</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>381085.63733100001</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>381101.98531100003</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>381118.17449599999</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>381134.20642900001</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>381150.08263399999</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>381165.80462499999</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>381181.373899</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>381196.79193800001</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>381212.06021099997</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>381227.18017200002</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>381242.153261</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>381256.980904</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>381271.664514</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>381286.20548800001</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>381300.60521299997</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>381314.86505899997</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>381328.986385</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>381342.97053699999</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>381356.81884600001</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>381370.53263099998</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>381384.11319900001</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>381397.56184400001</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>381410.879847</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>381424.06847699999</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>381437.12899</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>381450.06263</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>381462.87063000002</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>381475.55420999997</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>381488.11457899999</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>381500.55293300003</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>381512.87045799999</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>381525.06832600001</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>381537.14770099998</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>381549.109734</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>381560.955563</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>381572.68631899997</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>381584.30311799998</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>381595.80706800002</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>381607.199265</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>381618.48079399997</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>381629.65273099998</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>381640.71614099998</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>381651.67207700002</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>381662.52158399997</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>381673.26569600002</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>381683.90543599997</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>381694.441819</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>381704.875848</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>381715.20851899998</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>381725.44081499998</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>381735.57371299999</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>381745.60817700002</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>381755.54516500002</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>381765.38562299998</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>381775.130489</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>381784.78069099999</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>381794.33715099999</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>381803.80077799998</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>381813.17247500003</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>381822.45313400001</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>381831.64364000002</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>381840.74486999999</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>381849.75769100001</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>381858.68296200002</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>381867.52153299999</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>381876.27424699999</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>381884.94193799997</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>381893.525433</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>381902.02554900001</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>381910.44309700001</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>381918.77887899999</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>381927.03369000001</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>381935.20831700001</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>381943.30353799998</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>381951.32012599998</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>381959.258844</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>381967.12044899998</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>381974.90569099999</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>381982.61531099997</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>381990.25004499999</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>381997.81062</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>382005.29775700002</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>382012.71217000001</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>382020.054565</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>382027.32564200001</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>382034.52609399997</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>382041.65660799999</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>382048.71786400001</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>382055.710533</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>382062.63528400002</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>382069.49277499999</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>382076.28366100002</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>382083.00858899998</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>382089.66820000001</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>382096.26312900003</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>382102.79400400002</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>382109.26144799998</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>382115.66607699997</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>382122.008501</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>382128.28932600003</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>382134.50915</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>382140.66856600001</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>382146.76815999998</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>382152.80851499998</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>382158.79020599998</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>382164.71380299999</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>382170.57987000002</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>382176.38896800001</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>382182.141649</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>382187.83846100001</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>382193.479949</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>382199.06664899999</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>382204.599093</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>382210.07780999999</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>382215.50332199998</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>382220.87614499999</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>382226.19679100002</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>382231.46576799999</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>382236.683578</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>382241.85071799997</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>382246.96768</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>382252.03495300002</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>382257.05301899998</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>382262.02235599997</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>382266.94343799999</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>382271.81673399999</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>382276.64270800003</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>382281.421821</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>382286.15452699998</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>382290.84127799998</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>382295.48252000002</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>382300.07869599998</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>382304.63024299999</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>382309.13759599999</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>382313.60118300002</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>382318.02143099997</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>382322.39876000001</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>382326.733587</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>382331.02632599999</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>382335.27738599997</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>382339.48717099999</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>382343.65608300001</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>382347.78451899998</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>382351.87287199998</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>382355.92153200001</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>382359.93088399997</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>382363.90131099999</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>382367.83319199999</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>382371.726899</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>382375.58280500001</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>382379.40127700003</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>382383.18267900002</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>382386.92736999999</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>382390.63570899999</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>382394.30804700003</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>382397.94473500003</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>382401.54611900001</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>382405.11254200002</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>382408.64434499998</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>382412.141863</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>382415.60542899999</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>382419.03537400003</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>382422.43202499999</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>382425.79570399999</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>382429.12673299998</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>382432.42542799999</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>382435.69210500002</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>382438.927073</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>382442.130641</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>382445.30311400001</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>382448.44479400001</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>382451.55598100001</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>382454.636971</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>382457.68805699999</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>382460.70952999999</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>382463.70167799998</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>382466.66478499997</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>382469.59913400002</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>382472.50500499998</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>382475.38267299999</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>382478.23241300002</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>382481.054497</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>382483.84919199999</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>382486.61676599999</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>382489.35748100001</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>382492.07160000002</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>382494.759379</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>382497.42107500002</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>382500.056942</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>382502.66723000002</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>382505.25218900002</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>382507.81206299999</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>382510.34709699999</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>382512.85753199999</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>382515.34360800002</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>382517.80556000001</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>382520.24362299999</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>382522.65802999999</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>382525.04901000002</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>382527.416791</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>382529.76159800001</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>382532.08365400002</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>382534.38318</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>382536.66039600002</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>382538.91551800002</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>382541.14876000001</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>382543.36033599998</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>382545.55045500002</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>382547.71932700003</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>382549.867157</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>382551.99414999998</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>382554.10050900001</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>382556.18643300002</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>382558.25212199998</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>382560.29777200002</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>382562.32357800001</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>382564.32973100001</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>382566.31642500003</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>382568.28384599998</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>382570.23218300001</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>382572.16162099998</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>382574.07234399999</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>382575.96453300002</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>382577.838368</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>382579.694028</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>382581.53168900002</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>382583.35152600001</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>382585.15371300001</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>382586.93842000002</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>382588.70581700001</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>382590.45607299998</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>382592.18935399997</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>382593.90582400002</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>382595.60564800003</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>382597.28898700001</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>382598.95600100001</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>382600.60684800002</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>382602.24168600002</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>382603.86067000002</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>382605.46395399998</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>382607.05168999999</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>382608.62403000001</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>382610.18112299999</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>382611.72311700002</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>382613.25015899999</c:v>
-                </c:pt>
-                <c:pt idx="880">
-                  <c:v>382614.76239300001</c:v>
-                </c:pt>
-                <c:pt idx="881">
-                  <c:v>382616.25996499998</c:v>
-                </c:pt>
-                <c:pt idx="882">
-                  <c:v>382617.74301500001</c:v>
-                </c:pt>
-                <c:pt idx="883">
-                  <c:v>382619.211686</c:v>
-                </c:pt>
-                <c:pt idx="884">
-                  <c:v>382620.66611699999</c:v>
-                </c:pt>
-                <c:pt idx="885">
-                  <c:v>382622.10644599999</c:v>
-                </c:pt>
-                <c:pt idx="886">
-                  <c:v>382623.53281</c:v>
-                </c:pt>
-                <c:pt idx="887">
-                  <c:v>382624.94534400001</c:v>
-                </c:pt>
-                <c:pt idx="888">
-                  <c:v>382626.34418399999</c:v>
-                </c:pt>
-                <c:pt idx="889">
-                  <c:v>382627.72946100001</c:v>
-                </c:pt>
-                <c:pt idx="890">
-                  <c:v>382629.10130799998</c:v>
-                </c:pt>
-                <c:pt idx="891">
-                  <c:v>382630.45985500002</c:v>
-                </c:pt>
-                <c:pt idx="892">
-                  <c:v>382631.80523200001</c:v>
-                </c:pt>
-                <c:pt idx="893">
-                  <c:v>382633.13756499998</c:v>
-                </c:pt>
-                <c:pt idx="894">
-                  <c:v>382634.45698299998</c:v>
-                </c:pt>
-                <c:pt idx="895">
-                  <c:v>382635.76360900002</c:v>
-                </c:pt>
-                <c:pt idx="896">
-                  <c:v>382637.057569</c:v>
-                </c:pt>
-                <c:pt idx="897">
-                  <c:v>382638.33898599999</c:v>
-                </c:pt>
-                <c:pt idx="898">
-                  <c:v>382639.60797999997</c:v>
-                </c:pt>
-                <c:pt idx="899">
-                  <c:v>382640.86467400001</c:v>
-                </c:pt>
-                <c:pt idx="900">
-                  <c:v>382642.10918500001</c:v>
-                </c:pt>
-                <c:pt idx="901">
-                  <c:v>382643.341633</c:v>
-                </c:pt>
-                <c:pt idx="902">
-                  <c:v>382644.56213500001</c:v>
-                </c:pt>
-                <c:pt idx="903">
-                  <c:v>382645.77080599999</c:v>
-                </c:pt>
-                <c:pt idx="904">
-                  <c:v>382646.96776199999</c:v>
-                </c:pt>
-                <c:pt idx="905">
-                  <c:v>382648.15311700001</c:v>
-                </c:pt>
-                <c:pt idx="906">
-                  <c:v>382649.32698200003</c:v>
-                </c:pt>
-                <c:pt idx="907">
-                  <c:v>382650.48946900002</c:v>
-                </c:pt>
-                <c:pt idx="908">
-                  <c:v>382651.64068999997</c:v>
-                </c:pt>
-                <c:pt idx="909">
-                  <c:v>382652.780753</c:v>
-                </c:pt>
-                <c:pt idx="910">
-                  <c:v>382653.909766</c:v>
-                </c:pt>
-                <c:pt idx="911">
-                  <c:v>382655.02783699997</c:v>
-                </c:pt>
-                <c:pt idx="912">
-                  <c:v>382656.13507299998</c:v>
-                </c:pt>
-                <c:pt idx="913">
-                  <c:v>382657.23157800001</c:v>
-                </c:pt>
-                <c:pt idx="914">
-                  <c:v>382658.31745600002</c:v>
-                </c:pt>
-                <c:pt idx="915">
-                  <c:v>382659.392811</c:v>
-                </c:pt>
-                <c:pt idx="916">
-                  <c:v>382660.45774500002</c:v>
-                </c:pt>
-                <c:pt idx="917">
-                  <c:v>382661.51235899999</c:v>
-                </c:pt>
-                <c:pt idx="918">
-                  <c:v>382662.55675300001</c:v>
-                </c:pt>
-                <c:pt idx="919">
-                  <c:v>382663.59102599998</c:v>
-                </c:pt>
-                <c:pt idx="920">
-                  <c:v>382664.615277</c:v>
-                </c:pt>
-                <c:pt idx="921">
-                  <c:v>382665.62960300001</c:v>
-                </c:pt>
-                <c:pt idx="922">
-                  <c:v>382666.63410000002</c:v>
-                </c:pt>
-                <c:pt idx="923">
-                  <c:v>382667.62886400003</c:v>
-                </c:pt>
-                <c:pt idx="924">
-                  <c:v>382668.61398899998</c:v>
-                </c:pt>
-                <c:pt idx="925">
-                  <c:v>382669.589569</c:v>
-                </c:pt>
-                <c:pt idx="926">
-                  <c:v>382670.555696</c:v>
-                </c:pt>
-                <c:pt idx="927">
-                  <c:v>382671.51246300002</c:v>
-                </c:pt>
-                <c:pt idx="928">
-                  <c:v>382672.459959</c:v>
-                </c:pt>
-                <c:pt idx="929">
-                  <c:v>382673.39827499999</c:v>
-                </c:pt>
-                <c:pt idx="930">
-                  <c:v>382674.32750100002</c:v>
-                </c:pt>
-                <c:pt idx="931">
-                  <c:v>382675.24772400002</c:v>
-                </c:pt>
-                <c:pt idx="932">
-                  <c:v>382676.15903099999</c:v>
-                </c:pt>
-                <c:pt idx="933">
-                  <c:v>382677.06151000003</c:v>
-                </c:pt>
-                <c:pt idx="934">
-                  <c:v>382677.95524500002</c:v>
-                </c:pt>
-                <c:pt idx="935">
-                  <c:v>382678.84032299998</c:v>
-                </c:pt>
-                <c:pt idx="936">
-                  <c:v>382679.71682600002</c:v>
-                </c:pt>
-                <c:pt idx="937">
-                  <c:v>382680.58483800001</c:v>
-                </c:pt>
-                <c:pt idx="938">
-                  <c:v>382681.44444200001</c:v>
-                </c:pt>
-                <c:pt idx="939">
-                  <c:v>382682.29571899999</c:v>
-                </c:pt>
-                <c:pt idx="940">
-                  <c:v>382683.13874899998</c:v>
-                </c:pt>
-                <c:pt idx="941">
-                  <c:v>382683.97361400002</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>382684.800392</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>382685.61916100001</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>382686.43</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>382687.23298500001</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>382688.028192</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>382688.81569700001</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>382689.59557599999</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>382690.36790100002</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>382691.13274600002</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>382691.89018300001</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>382692.64028499997</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>382693.38312299998</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>382694.11876699998</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>382694.84728699998</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>382695.56875199999</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>382696.28323100001</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>382696.99079100002</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>382697.69150000002</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>382698.38542300003</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>382699.07262699999</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>382699.75317799998</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>382700.42713800003</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>382701.09457299998</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>382701.75554599997</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>382702.41012000002</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>382703.05835599999</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>382703.70031599997</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>382704.33606100001</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>382704.96565099998</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>382705.58914599998</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>382706.20660600002</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>382706.81808699999</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>382707.42365000001</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>382708.02334999997</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>382708.61724599998</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>382709.20539199997</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>382709.78784499998</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>382710.36466100003</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>382710.93589399999</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>382711.50159699999</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>382712.06182499998</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>382712.61663100001</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>382713.16606700001</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>382713.71018599998</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>382714.24903900002</c:v>
-                </c:pt>
-                <c:pt idx="987">
-                  <c:v>382714.78267599997</c:v>
-                </c:pt>
-                <c:pt idx="988">
-                  <c:v>382715.31115000002</c:v>
-                </c:pt>
-                <c:pt idx="989">
-                  <c:v>382715.83450900001</c:v>
-                </c:pt>
-                <c:pt idx="990">
-                  <c:v>382716.35280300002</c:v>
-                </c:pt>
-                <c:pt idx="991">
-                  <c:v>382716.86608200002</c:v>
-                </c:pt>
-                <c:pt idx="992">
-                  <c:v>382717.37439399998</c:v>
-                </c:pt>
-                <c:pt idx="993">
-                  <c:v>382717.87778799998</c:v>
-                </c:pt>
-                <c:pt idx="994">
-                  <c:v>382718.37631000002</c:v>
-                </c:pt>
-                <c:pt idx="995">
-                  <c:v>382718.870008</c:v>
-                </c:pt>
-                <c:pt idx="996">
-                  <c:v>382719.35892999999</c:v>
-                </c:pt>
-                <c:pt idx="997">
-                  <c:v>382719.84311999998</c:v>
-                </c:pt>
-                <c:pt idx="998">
-                  <c:v>382720.32262599998</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>382720.79749299999</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>382721.267765</c:v>
-                </c:pt>
-                <c:pt idx="1001">
-                  <c:v>382721.73348699999</c:v>
-                </c:pt>
-                <c:pt idx="1002">
-                  <c:v>382722.19470400002</c:v>
-                </c:pt>
-                <c:pt idx="1003">
-                  <c:v>382722.65145800001</c:v>
-                </c:pt>
-                <c:pt idx="1004">
-                  <c:v>382723.103794</c:v>
-                </c:pt>
-                <c:pt idx="1005">
-                  <c:v>382723.55175400001</c:v>
-                </c:pt>
-                <c:pt idx="1006">
-                  <c:v>382723.99537999998</c:v>
-                </c:pt>
-                <c:pt idx="1007">
-                  <c:v>382724.43471499998</c:v>
-                </c:pt>
-                <c:pt idx="1008">
-                  <c:v>382724.86979999999</c:v>
-                </c:pt>
-                <c:pt idx="1009">
-                  <c:v>382725.30067600001</c:v>
-                </c:pt>
-                <c:pt idx="1010">
-                  <c:v>382725.72738499998</c:v>
-                </c:pt>
-                <c:pt idx="1011">
-                  <c:v>382726.149966</c:v>
-                </c:pt>
-                <c:pt idx="1012">
-                  <c:v>382726.56845899997</c:v>
-                </c:pt>
-                <c:pt idx="1013">
-                  <c:v>382726.98290499998</c:v>
-                </c:pt>
-                <c:pt idx="1014">
-                  <c:v>382727.39334200002</c:v>
-                </c:pt>
-                <c:pt idx="1015">
-                  <c:v>382727.79980899999</c:v>
-                </c:pt>
-                <c:pt idx="1016">
-                  <c:v>382728.202345</c:v>
-                </c:pt>
-                <c:pt idx="1017">
-                  <c:v>382728.60098799999</c:v>
-                </c:pt>
-                <c:pt idx="1018">
-                  <c:v>382728.99577600003</c:v>
-                </c:pt>
-                <c:pt idx="1019">
-                  <c:v>382729.38674599997</c:v>
-                </c:pt>
-                <c:pt idx="1020">
-                  <c:v>382729.773934</c:v>
-                </c:pt>
-                <c:pt idx="1021">
-                  <c:v>382730.15737899998</c:v>
-                </c:pt>
-                <c:pt idx="1022">
-                  <c:v>382730.53711500001</c:v>
-                </c:pt>
-                <c:pt idx="1023">
-                  <c:v>382730.91317900002</c:v>
-                </c:pt>
-                <c:pt idx="1024">
-                  <c:v>382731.285607</c:v>
-                </c:pt>
-                <c:pt idx="1025">
-                  <c:v>382731.65443300002</c:v>
-                </c:pt>
-                <c:pt idx="1026">
-                  <c:v>382732.01969300001</c:v>
-                </c:pt>
-                <c:pt idx="1027">
-                  <c:v>382732.381421</c:v>
-                </c:pt>
-                <c:pt idx="1028">
-                  <c:v>382732.73965200002</c:v>
-                </c:pt>
-                <c:pt idx="1029">
-                  <c:v>382733.09441899997</c:v>
-                </c:pt>
-                <c:pt idx="1030">
-                  <c:v>382733.445756</c:v>
-                </c:pt>
-                <c:pt idx="1031">
-                  <c:v>382733.79369600001</c:v>
-                </c:pt>
-                <c:pt idx="1032">
-                  <c:v>382734.13827200001</c:v>
-                </c:pt>
-                <c:pt idx="1033">
-                  <c:v>382734.47951700003</c:v>
-                </c:pt>
-                <c:pt idx="1034">
-                  <c:v>382734.81746300001</c:v>
-                </c:pt>
-                <c:pt idx="1035">
-                  <c:v>382735.15214199998</c:v>
-                </c:pt>
-                <c:pt idx="1036">
-                  <c:v>382735.48358499998</c:v>
-                </c:pt>
-                <c:pt idx="1037">
-                  <c:v>382735.81182499998</c:v>
-                </c:pt>
-                <c:pt idx="1038">
-                  <c:v>382736.13689099997</c:v>
-                </c:pt>
-                <c:pt idx="1039">
-                  <c:v>382736.45881500002</c:v>
-                </c:pt>
-                <c:pt idx="1040">
-                  <c:v>382736.77762800001</c:v>
-                </c:pt>
-                <c:pt idx="1041">
-                  <c:v>382737.09335799998</c:v>
-                </c:pt>
-                <c:pt idx="1042">
-                  <c:v>382737.40603700001</c:v>
-                </c:pt>
-                <c:pt idx="1043">
-                  <c:v>382737.71569400001</c:v>
-                </c:pt>
-                <c:pt idx="1044">
-                  <c:v>382738.02235799999</c:v>
-                </c:pt>
-                <c:pt idx="1045">
-                  <c:v>382738.32605799998</c:v>
-                </c:pt>
-                <c:pt idx="1046">
-                  <c:v>382738.62682200002</c:v>
-                </c:pt>
-                <c:pt idx="1047">
-                  <c:v>382738.92468</c:v>
-                </c:pt>
-                <c:pt idx="1048">
-                  <c:v>382739.21965899999</c:v>
-                </c:pt>
-                <c:pt idx="1049">
-                  <c:v>382739.511788</c:v>
-                </c:pt>
-                <c:pt idx="1050">
-                  <c:v>382739.80109399999</c:v>
-                </c:pt>
-                <c:pt idx="1051">
-                  <c:v>382740.08760299999</c:v>
-                </c:pt>
-                <c:pt idx="1052">
-                  <c:v>382740.37134399998</c:v>
-                </c:pt>
-                <c:pt idx="1053">
-                  <c:v>382740.652344</c:v>
-                </c:pt>
-                <c:pt idx="1054">
-                  <c:v>382740.930628</c:v>
-                </c:pt>
-                <c:pt idx="1055">
-                  <c:v>382741.20622300002</c:v>
-                </c:pt>
-                <c:pt idx="1056">
-                  <c:v>382741.47915500001</c:v>
-                </c:pt>
-                <c:pt idx="1057">
-                  <c:v>382741.74945</c:v>
-                </c:pt>
-                <c:pt idx="1058">
-                  <c:v>382742.01713400002</c:v>
-                </c:pt>
-                <c:pt idx="1059">
-                  <c:v>382742.28223100002</c:v>
-                </c:pt>
-                <c:pt idx="1060">
-                  <c:v>382742.54476700001</c:v>
-                </c:pt>
-                <c:pt idx="1061">
-                  <c:v>382742.80476700002</c:v>
-                </c:pt>
-                <c:pt idx="1062">
-                  <c:v>382743.06225399999</c:v>
-                </c:pt>
-                <c:pt idx="1063">
-                  <c:v>382743.317255</c:v>
-                </c:pt>
-                <c:pt idx="1064">
-                  <c:v>382743.56979199999</c:v>
-                </c:pt>
-                <c:pt idx="1065">
-                  <c:v>382743.81988899998</c:v>
-                </c:pt>
-                <c:pt idx="1066">
-                  <c:v>382744.06757000001</c:v>
-                </c:pt>
-                <c:pt idx="1067">
-                  <c:v>382744.312859</c:v>
-                </c:pt>
-                <c:pt idx="1068">
-                  <c:v>382744.55577899999</c:v>
-                </c:pt>
-                <c:pt idx="1069">
-                  <c:v>382744.79635199998</c:v>
-                </c:pt>
-                <c:pt idx="1070">
-                  <c:v>382745.03460100002</c:v>
-                </c:pt>
-                <c:pt idx="1071">
-                  <c:v>382745.27055000002</c:v>
-                </c:pt>
-                <c:pt idx="1072">
-                  <c:v>382745.50421899999</c:v>
-                </c:pt>
-                <c:pt idx="1073">
-                  <c:v>382745.73563200003</c:v>
-                </c:pt>
-                <c:pt idx="1074">
-                  <c:v>382745.96480999998</c:v>
-                </c:pt>
-                <c:pt idx="1075">
-                  <c:v>382746.19177400001</c:v>
-                </c:pt>
-                <c:pt idx="1076">
-                  <c:v>382746.416547</c:v>
-                </c:pt>
-                <c:pt idx="1077">
-                  <c:v>382746.63914799999</c:v>
-                </c:pt>
-                <c:pt idx="1078">
-                  <c:v>382746.85960099997</c:v>
-                </c:pt>
-                <c:pt idx="1079">
-                  <c:v>382747.07792399998</c:v>
-                </c:pt>
-                <c:pt idx="1080">
-                  <c:v>382747.29413900001</c:v>
-                </c:pt>
-                <c:pt idx="1081">
-                  <c:v>382747.50826700003</c:v>
-                </c:pt>
-                <c:pt idx="1082">
-                  <c:v>382747.72032700002</c:v>
-                </c:pt>
-                <c:pt idx="1083">
-                  <c:v>382747.93033900001</c:v>
-                </c:pt>
-                <c:pt idx="1084">
-                  <c:v>382748.138324</c:v>
-                </c:pt>
-                <c:pt idx="1085">
-                  <c:v>382748.3443</c:v>
-                </c:pt>
-                <c:pt idx="1086">
-                  <c:v>382748.54828799999</c:v>
-                </c:pt>
-                <c:pt idx="1087">
-                  <c:v>382748.75030700001</c:v>
-                </c:pt>
-                <c:pt idx="1088">
-                  <c:v>382748.95037500001</c:v>
-                </c:pt>
-                <c:pt idx="1089">
-                  <c:v>382749.14851199999</c:v>
-                </c:pt>
-                <c:pt idx="1090">
-                  <c:v>382749.344736</c:v>
-                </c:pt>
-                <c:pt idx="1091">
-                  <c:v>382749.53906500002</c:v>
-                </c:pt>
-                <c:pt idx="1092">
-                  <c:v>382749.73151900002</c:v>
-                </c:pt>
-                <c:pt idx="1093">
-                  <c:v>382749.92211500002</c:v>
-                </c:pt>
-                <c:pt idx="1094">
-                  <c:v>382750.11087199999</c:v>
-                </c:pt>
-                <c:pt idx="1095">
-                  <c:v>382750.29780599999</c:v>
-                </c:pt>
-                <c:pt idx="1096">
-                  <c:v>382750.48293699999</c:v>
-                </c:pt>
-                <c:pt idx="1097">
-                  <c:v>382750.66628</c:v>
-                </c:pt>
-                <c:pt idx="1098">
-                  <c:v>382750.84785399999</c:v>
-                </c:pt>
-                <c:pt idx="1099">
-                  <c:v>382751.02767500002</c:v>
-                </c:pt>
-                <c:pt idx="1100">
-                  <c:v>382751.20576099999</c:v>
-                </c:pt>
-                <c:pt idx="1101">
-                  <c:v>382751.38212899998</c:v>
-                </c:pt>
-                <c:pt idx="1102">
-                  <c:v>382751.55679399997</c:v>
-                </c:pt>
-                <c:pt idx="1103">
-                  <c:v>382751.72977400001</c:v>
-                </c:pt>
-                <c:pt idx="1104">
-                  <c:v>382751.90108400001</c:v>
-                </c:pt>
-                <c:pt idx="1105">
-                  <c:v>382752.07074200001</c:v>
-                </c:pt>
-                <c:pt idx="1106">
-                  <c:v>382752.23876199999</c:v>
-                </c:pt>
-                <c:pt idx="1107">
-                  <c:v>382752.40516199998</c:v>
-                </c:pt>
-                <c:pt idx="1108">
-                  <c:v>382752.56995500001</c:v>
-                </c:pt>
-                <c:pt idx="1109">
-                  <c:v>382752.733159</c:v>
-                </c:pt>
-                <c:pt idx="1110">
-                  <c:v>382752.89478799998</c:v>
-                </c:pt>
-                <c:pt idx="1111">
-                  <c:v>382753.05485800002</c:v>
-                </c:pt>
-                <c:pt idx="1112">
-                  <c:v>382753.21338299999</c:v>
-                </c:pt>
-                <c:pt idx="1113">
-                  <c:v>382753.37037900003</c:v>
-                </c:pt>
-                <c:pt idx="1114">
-                  <c:v>382753.525861</c:v>
-                </c:pt>
-                <c:pt idx="1115">
-                  <c:v>382753.67984300002</c:v>
-                </c:pt>
-                <c:pt idx="1116">
-                  <c:v>382753.83233900002</c:v>
-                </c:pt>
-                <c:pt idx="1117">
-                  <c:v>382753.98336399999</c:v>
-                </c:pt>
-                <c:pt idx="1118">
-                  <c:v>382754.13293299999</c:v>
-                </c:pt>
-                <c:pt idx="1119">
-                  <c:v>382754.281059</c:v>
-                </c:pt>
-                <c:pt idx="1120">
-                  <c:v>382754.42775600002</c:v>
-                </c:pt>
-                <c:pt idx="1121">
-                  <c:v>382754.57303799997</c:v>
-                </c:pt>
-                <c:pt idx="1122">
-                  <c:v>382754.71691999998</c:v>
-                </c:pt>
-                <c:pt idx="1123">
-                  <c:v>382754.859413</c:v>
-                </c:pt>
-                <c:pt idx="1124">
-                  <c:v>382755.00053199998</c:v>
-                </c:pt>
-                <c:pt idx="1125">
-                  <c:v>382755.14029100002</c:v>
-                </c:pt>
-                <c:pt idx="1126">
-                  <c:v>382755.27870099997</c:v>
-                </c:pt>
-                <c:pt idx="1127">
-                  <c:v>382755.41577700002</c:v>
-                </c:pt>
-                <c:pt idx="1128">
-                  <c:v>382755.551531</c:v>
-                </c:pt>
-                <c:pt idx="1129">
-                  <c:v>382755.68597599998</c:v>
-                </c:pt>
-                <c:pt idx="1130">
-                  <c:v>382755.81912499998</c:v>
-                </c:pt>
-                <c:pt idx="1131">
-                  <c:v>382755.95098999998</c:v>
-                </c:pt>
-                <c:pt idx="1132">
-                  <c:v>382756.08158300002</c:v>
-                </c:pt>
-                <c:pt idx="1133">
-                  <c:v>382756.21091800003</c:v>
-                </c:pt>
-                <c:pt idx="1134">
-                  <c:v>382756.33900500002</c:v>
-                </c:pt>
-                <c:pt idx="1135">
-                  <c:v>382756.46585799998</c:v>
-                </c:pt>
-                <c:pt idx="1136">
-                  <c:v>382756.59148800001</c:v>
-                </c:pt>
-                <c:pt idx="1137">
-                  <c:v>382756.715906</c:v>
-                </c:pt>
-                <c:pt idx="1138">
-                  <c:v>382756.83912600001</c:v>
-                </c:pt>
-                <c:pt idx="1139">
-                  <c:v>382756.96115699998</c:v>
-                </c:pt>
-                <c:pt idx="1140">
-                  <c:v>382757.08201200003</c:v>
-                </c:pt>
-                <c:pt idx="1141">
-                  <c:v>382757.20170199999</c:v>
-                </c:pt>
-                <c:pt idx="1142">
-                  <c:v>382757.32023900002</c:v>
-                </c:pt>
-                <c:pt idx="1143">
-                  <c:v>382757.43763300002</c:v>
-                </c:pt>
-                <c:pt idx="1144">
-                  <c:v>382757.55389600003</c:v>
-                </c:pt>
-                <c:pt idx="1145">
-                  <c:v>382757.66903799999</c:v>
-                </c:pt>
-                <c:pt idx="1146">
-                  <c:v>382757.78307100001</c:v>
-                </c:pt>
-                <c:pt idx="1147">
-                  <c:v>382757.89600399998</c:v>
-                </c:pt>
-                <c:pt idx="1148">
-                  <c:v>382758.00784999999</c:v>
-                </c:pt>
-                <c:pt idx="1149">
-                  <c:v>382758.118617</c:v>
-                </c:pt>
-                <c:pt idx="1150">
-                  <c:v>382758.22831699997</c:v>
-                </c:pt>
-                <c:pt idx="1151">
-                  <c:v>382758.33695999999</c:v>
-                </c:pt>
-                <c:pt idx="1152">
-                  <c:v>382758.44455700001</c:v>
-                </c:pt>
-                <c:pt idx="1153">
-                  <c:v>382758.55111599999</c:v>
-                </c:pt>
-                <c:pt idx="1154">
-                  <c:v>382758.65664900001</c:v>
-                </c:pt>
-                <c:pt idx="1155">
-                  <c:v>382758.76116499997</c:v>
-                </c:pt>
-                <c:pt idx="1156">
-                  <c:v>382758.86467400001</c:v>
-                </c:pt>
-                <c:pt idx="1157">
-                  <c:v>382758.96718600002</c:v>
-                </c:pt>
-                <c:pt idx="1158">
-                  <c:v>382759.06871100003</c:v>
-                </c:pt>
-                <c:pt idx="1159">
-                  <c:v>382759.16925699997</c:v>
-                </c:pt>
-                <c:pt idx="1160">
-                  <c:v>382759.268835</c:v>
-                </c:pt>
-                <c:pt idx="1161">
-                  <c:v>382759.36745399999</c:v>
-                </c:pt>
-                <c:pt idx="1162">
-                  <c:v>382759.46512299997</c:v>
-                </c:pt>
-                <c:pt idx="1163">
-                  <c:v>382759.56185100001</c:v>
-                </c:pt>
-                <c:pt idx="1164">
-                  <c:v>382759.65764699999</c:v>
-                </c:pt>
-                <c:pt idx="1165">
-                  <c:v>382759.75252099999</c:v>
-                </c:pt>
-                <c:pt idx="1166">
-                  <c:v>382759.84648100002</c:v>
-                </c:pt>
-                <c:pt idx="1167">
-                  <c:v>382759.93953600002</c:v>
-                </c:pt>
-                <c:pt idx="1168">
-                  <c:v>382760.03169500001</c:v>
-                </c:pt>
-                <c:pt idx="1169">
-                  <c:v>382760.122967</c:v>
-                </c:pt>
-                <c:pt idx="1170">
-                  <c:v>382760.21335899999</c:v>
-                </c:pt>
-                <c:pt idx="1171">
-                  <c:v>382760.30288099998</c:v>
-                </c:pt>
-                <c:pt idx="1172">
-                  <c:v>382760.391542</c:v>
-                </c:pt>
-                <c:pt idx="1173">
-                  <c:v>382760.47934800002</c:v>
-                </c:pt>
-                <c:pt idx="1174">
-                  <c:v>382760.56630900002</c:v>
-                </c:pt>
-                <c:pt idx="1175">
-                  <c:v>382760.65243299998</c:v>
-                </c:pt>
-                <c:pt idx="1176">
-                  <c:v>382760.73772799998</c:v>
-                </c:pt>
-                <c:pt idx="1177">
-                  <c:v>382760.82220200001</c:v>
-                </c:pt>
-                <c:pt idx="1178">
-                  <c:v>382760.90586200001</c:v>
-                </c:pt>
-                <c:pt idx="1179">
-                  <c:v>382760.988717</c:v>
-                </c:pt>
-                <c:pt idx="1180">
-                  <c:v>382761.07077400002</c:v>
-                </c:pt>
-                <c:pt idx="1181">
-                  <c:v>382761.15204199997</c:v>
-                </c:pt>
-                <c:pt idx="1182">
-                  <c:v>382761.23252700001</c:v>
-                </c:pt>
-                <c:pt idx="1183">
-                  <c:v>382761.31223799998</c:v>
-                </c:pt>
-                <c:pt idx="1184">
-                  <c:v>382761.39118099998</c:v>
-                </c:pt>
-                <c:pt idx="1185">
-                  <c:v>382761.46936500003</c:v>
-                </c:pt>
-                <c:pt idx="1186">
-                  <c:v>382761.54679599998</c:v>
-                </c:pt>
-                <c:pt idx="1187">
-                  <c:v>382761.62348200002</c:v>
-                </c:pt>
-                <c:pt idx="1188">
-                  <c:v>382761.69942999998</c:v>
-                </c:pt>
-                <c:pt idx="1189">
-                  <c:v>382761.77464700001</c:v>
-                </c:pt>
-                <c:pt idx="1190">
-                  <c:v>382761.84914100001</c:v>
-                </c:pt>
-                <c:pt idx="1191">
-                  <c:v>382761.92291700002</c:v>
-                </c:pt>
-                <c:pt idx="1192">
-                  <c:v>382761.99598399998</c:v>
-                </c:pt>
-                <c:pt idx="1193">
-                  <c:v>382762.068348</c:v>
-                </c:pt>
-                <c:pt idx="1194">
-                  <c:v>382762.14001500001</c:v>
-                </c:pt>
-                <c:pt idx="1195">
-                  <c:v>382762.21099300002</c:v>
-                </c:pt>
-                <c:pt idx="1196">
-                  <c:v>382762.281288</c:v>
-                </c:pt>
-                <c:pt idx="1197">
-                  <c:v>382762.35090700001</c:v>
-                </c:pt>
-                <c:pt idx="1198">
-                  <c:v>382762.41985599999</c:v>
-                </c:pt>
-                <c:pt idx="1199">
-                  <c:v>382762.48814199999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF17-D945-A85C-67C63AB1304E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1760910511"/>
-        <c:axId val="1"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1760910511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1300"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="等线"/>
-                    <a:ea typeface="等线"/>
-                    <a:cs typeface="等线"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="333333"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" charset="0"/>
-                    <a:cs typeface="Calibri" charset="0"/>
-                  </a:rPr>
-                  <a:t>Time(Minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45277777777777778"/>
-              <c:y val="0.87037037037037035"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="C0C0C0"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="等线"/>
-                <a:ea typeface="等线"/>
-                <a:cs typeface="等线"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:srgbClr val="C0C0C0"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="等线"/>
-                    <a:ea typeface="等线"/>
-                    <a:cs typeface="等线"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                    <a:solidFill>
-                      <a:srgbClr val="333333"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri" charset="0"/>
-                    <a:cs typeface="Calibri" charset="0"/>
-                  </a:rPr>
-                  <a:t>Likelihood</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.1111111111111112E-2"/>
-              <c:y val="0.31944444444444442"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:srgbClr val="C0C0C0"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0%">
-                <a:solidFill>
-                  <a:srgbClr val="333333"/>
-                </a:solidFill>
-                <a:latin typeface="等线"/>
-                <a:ea typeface="等线"/>
-                <a:cs typeface="等线"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1760910511"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
         <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="12700">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0%">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="等线"/>
-          <a:ea typeface="等线"/>
-          <a:cs typeface="等线"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15839,28 +8883,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>311150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1025" name="图表 1">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED10E1E3-1E6A-7543-AA41-0F43C2C9078A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18995F7B-7E26-6B46-A83B-77B528F6E648}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -15874,44 +8916,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1026" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC248D4-EDB4-134C-8F7A-8E06BC25A9A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15919,95 +8923,198 @@
 <c:userShapes xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://purl.oclc.org/ooxml/drawingml/chartDrawing">
     <cdr:from>
-      <cdr:x>0.37753</cdr:x>
-      <cdr:y>0.28233</cdr:y>
+      <cdr:x>0.22778</cdr:x>
+      <cdr:y>0.28241</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.4027</cdr:x>
-      <cdr:y>0.32375</cdr:y>
+      <cdr:x>0.93611</cdr:x>
+      <cdr:y>0.28241</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="直线连接符 1">
+          <a:extLst xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9588F96-48F3-8C40-932F-D3EA76C7E1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+          <a:off x="1041400" y="774700"/>
+          <a:ext cx="3238500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://purl.oclc.org/ooxml/drawingml/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39167</cdr:x>
+      <cdr:y>0.30093</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41806</cdr:x>
+      <cdr:y>0.34491</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2049" name="椭圆 1">
+        <cdr:cNvPr id="3" name="椭圆 2">
           <a:extLst xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D1097D-72B2-4F4D-AF27-4BA8CCB6B3F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED22CF0A-5194-1644-9787-0FC642CC2F5F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
-        <cdr:cNvSpPr>
-          <a:spLocks xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" noChangeArrowheads="1"/>
-        </cdr:cNvSpPr>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
-      <cdr:spPr bwMode="auto">
+      <cdr:spPr>
         <a:xfrm xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-          <a:off x="1730842" y="778078"/>
-          <a:ext cx="115440" cy="114135"/>
+          <a:off x="1790700" y="825500"/>
+          <a:ext cx="120650" cy="120650"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0066CC" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="30"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="333399" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="62"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </cdr:spPr>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://purl.oclc.org/ooxml/drawingml/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37753</cdr:x>
-      <cdr:y>0.28233</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.4027</cdr:x>
-      <cdr:y>0.32375</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3073" name="椭圆 1">
-          <a:extLst xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD1E009-55EE-CD4B-A7D1-21C438568174}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr>
-          <a:spLocks xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" noChangeArrowheads="1"/>
-        </cdr:cNvSpPr>
-      </cdr:nvSpPr>
-      <cdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-          <a:off x="1730842" y="778078"/>
-          <a:ext cx="115440" cy="114135"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0066CC" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="30"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="333399" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="62"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50%"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://purl.oclc.org/ooxml/drawingml/main"/>
+        <a:lstStyle xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
@@ -16313,7 +9420,7 @@
   <dimension ref="A1:C1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29527,9 +22634,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/writings/fig/4feature_lik.xlsx
+++ b/writings/fig/4feature_lik.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{66A8B2EE-DD38-9E47-BEE3-73771D9F3C7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{3B44B9CC-5410-C247-8DFD-15B2496ABA48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="5120" windowWidth="26900" windowHeight="15940"/>
+    <workbookView xWindow="40160" yWindow="3720" windowWidth="26900" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="VB3_lik" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">VB3_lik!$B$2:$B$1201</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">VB3_lik!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">VB3_lik!$C$2:$C$1201</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -8192,6 +8187,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+                  <a:t>Log</a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
                   <a:t>L</a:t>
